--- a/a2_q3.xlsx
+++ b/a2_q3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shresthkapila/Desktop/sfuhome/cmpt310/aima-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F04AF36-AD70-704C-B874-1D8CBADF6617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68977776-8679-B549-BBBC-F4B807AB1155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{435441B8-6586-3440-A561-ED3C0B70E921}"/>
   </bookViews>
